--- a/data/georgia_census/racha/ambrolauri/average_wages.xlsx
+++ b/data/georgia_census/racha/ambrolauri/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317DB68F-25A8-4D02-872D-6AFB4F558ABE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481AACAB-8EFE-4328-AFFB-F71600E00D45}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400469CD-F9F1-4A8E-AE8B-B18403A43350}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA113AEE-7992-4CF0-9816-B1F3F1E1C11D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F92A892-CD83-4F7D-83FA-CE19E57AE0D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{766B7801-452E-4DE5-8264-BE40C1D2A593}"/>
 </file>